--- a/infra-course-movie/パラメータシート_answer.xlsx
+++ b/infra-course-movie/パラメータシート_answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIAKI\Desktop\dotlife\01_教材\git\doc-sample-answer\infra-course-movie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830C9D35-B01D-45DE-A972-634485C5DB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC55D54-5820-4D44-B894-5A13182DFE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構成図" sheetId="16" r:id="rId1"/>
@@ -23,14 +23,24 @@
     <sheet name="(APP)S3" sheetId="20" r:id="rId8"/>
     <sheet name="(LP)CloudFront" sheetId="17" r:id="rId9"/>
     <sheet name="(LP)S3" sheetId="18" r:id="rId10"/>
-    <sheet name="(OPE)IAM" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="271">
   <si>
     <t>大項目</t>
   </si>
@@ -98,18 +108,6 @@
     <t>Endpoint</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Policy</t>
-  </si>
-  <si>
     <t>EIP</t>
   </si>
   <si>
@@ -159,9 +157,6 @@
   </si>
   <si>
     <t>Outbound</t>
-  </si>
-  <si>
-    <t>権限</t>
   </si>
   <si>
     <t>パブリックアクセス</t>
@@ -1092,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1112,12 +1107,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1133,6 +1125,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF4BA90-7C94-D5E5-B1EF-0B193021DC36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13601700" cy="6934200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1335,12 +1393,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F0E6D9-D3AD-49FF-91B8-2F8D2B2D8142}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1348,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5E607D-58A2-4850-8296-B6EE8C55631B}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1371,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1379,14 +1440,14 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1398,7 +1459,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1406,11 +1467,11 @@
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1418,11 +1479,11 @@
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1430,11 +1491,11 @@
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1442,11 +1503,11 @@
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1454,11 +1515,11 @@
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1466,11 +1527,11 @@
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1478,11 +1539,11 @@
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1490,11 +1551,11 @@
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1502,11 +1563,11 @@
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1514,11 +1575,11 @@
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1527,10 +1588,10 @@
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1539,10 +1600,10 @@
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1550,11 +1611,11 @@
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1562,11 +1623,11 @@
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1578,21 +1639,21 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1676,132 +1737,6 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="12.5703125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1825,33 +1760,33 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1859,31 +1794,31 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1935,27 +1870,27 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1966,20 +1901,20 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>165</v>
+      <c r="D5" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,7 +1928,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2004,7 +1939,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2016,19 +1951,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2042,51 +1977,51 @@
         <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2098,19 +2033,19 @@
         <v>7</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2124,29 +2059,29 @@
         <v>7</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2158,19 +2093,19 @@
         <v>7</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2178,21 +2113,21 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2200,7 +2135,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2208,34 +2143,34 @@
         <v>11</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2243,7 +2178,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2251,34 +2186,34 @@
         <v>11</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2286,7 +2221,7 @@
         <v>19</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2294,34 +2229,34 @@
         <v>11</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2329,7 +2264,7 @@
         <v>19</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -2337,15 +2272,15 @@
         <v>11</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2362,7 +2297,7 @@
     <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -2370,7 +2305,7 @@
     </row>
     <row r="45" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -2397,7 +2332,7 @@
     </row>
     <row r="48" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -2425,8 +2360,8 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2434,7 +2369,7 @@
     <col min="1" max="1" width="12.5703125" style="4"/>
     <col min="2" max="2" width="25.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
@@ -2454,7 +2389,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -2462,68 +2397,68 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>178</v>
+      <c r="D2" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>185</v>
+      <c r="D3" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>186</v>
+      <c r="D4" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>187</v>
+        <v>66</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>188</v>
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>189</v>
+        <v>68</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>197</v>
+      <c r="D8" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,8 +2468,8 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>159</v>
+      <c r="D9" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2544,105 +2479,105 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>164</v>
+      <c r="D10" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>190</v>
+        <v>75</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>191</v>
+        <v>69</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>198</v>
+      <c r="D13" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>199</v>
+      <c r="D14" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>200</v>
+      <c r="D15" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>201</v>
+      <c r="D16" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>202</v>
+      <c r="D17" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>202</v>
+      <c r="D18" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>202</v>
+      <c r="D19" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2652,22 +2587,22 @@
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>203</v>
+      <c r="D20" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="13" t="s">
-        <v>204</v>
+      <c r="D21" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
@@ -2675,19 +2610,19 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>205</v>
+      <c r="D22" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>206</v>
+      <c r="D23" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2698,13 +2633,13 @@
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>207</v>
+      <c r="D24" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>6</v>
@@ -2712,8 +2647,8 @@
       <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>198</v>
+      <c r="D25" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -2723,29 +2658,29 @@
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>208</v>
+      <c r="D26" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="13" t="s">
-        <v>201</v>
+      <c r="D27" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="13" t="s">
-        <v>212</v>
+      <c r="D28" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -2753,13 +2688,13 @@
         <v>11</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="13" t="s">
-        <v>213</v>
+      <c r="D29" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>6</v>
@@ -2767,8 +2702,8 @@
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>215</v>
+      <c r="D30" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -2778,115 +2713,115 @@
       <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>159</v>
+      <c r="D31" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>142</v>
+        <v>34</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>216</v>
+        <v>35</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="13">
+        <v>36</v>
+      </c>
+      <c r="D34" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>217</v>
+        <v>37</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>193</v>
+        <v>34</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>192</v>
+        <v>35</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="13">
+        <v>36</v>
+      </c>
+      <c r="D38" s="4">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>182</v>
+        <v>37</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>195</v>
+        <v>34</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>195</v>
+        <v>35</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>195</v>
+        <v>36</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>196</v>
+        <v>37</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="13" t="s">
-        <v>218</v>
+      <c r="D44" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2931,27 +2866,27 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2962,73 +2897,73 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3039,18 +2974,18 @@
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3061,40 +2996,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,7 +3040,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3116,31 +3051,31 @@
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -3152,7 +3087,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -3165,8 +3100,8 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>235</v>
+      <c r="D22" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -3177,7 +3112,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -3188,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -3199,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,8 +3147,8 @@
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>233</v>
+      <c r="D26" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3159,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3233,7 +3168,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3244,12 +3179,12 @@
         <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>6</v>
@@ -3258,7 +3193,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3269,31 +3204,31 @@
         <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D34" s="4">
         <v>5432</v>
@@ -3301,45 +3236,45 @@
     </row>
     <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3350,11 +3285,11 @@
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="12"/>
+      <c r="D41" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3398,62 +3333,62 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3462,45 +3397,45 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4">
@@ -3510,16 +3445,16 @@
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4">
@@ -3532,18 +3467,18 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3551,31 +3486,31 @@
         <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20" s="4">
         <v>80</v>
@@ -3583,52 +3518,52 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3638,7 +3573,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3740,122 +3675,122 @@
     </row>
     <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -3865,7 +3800,7 @@
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
@@ -3875,7 +3810,7 @@
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C15" s="4">
         <v>30</v>
@@ -3885,7 +3820,7 @@
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4">
         <v>5</v>
@@ -3894,60 +3829,60 @@
     </row>
     <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C22" s="4">
         <v>3</v>
@@ -3957,7 +3892,7 @@
     <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C23" s="4">
         <v>10</v>
@@ -3967,7 +3902,7 @@
     <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C24" s="4">
         <v>30</v>
@@ -3977,7 +3912,7 @@
     <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C25" s="4">
         <v>5</v>
@@ -3986,70 +3921,70 @@
     </row>
     <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C32" s="4">
         <v>3600</v>
@@ -4059,79 +3994,79 @@
     <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C40" s="4">
         <v>3600</v>
@@ -4141,30 +4076,30 @@
     <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D43" s="4"/>
     </row>
@@ -4175,8 +4110,8 @@
       <c r="B44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>265</v>
+      <c r="C44" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="D44" s="4"/>
     </row>
@@ -4239,7 +4174,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D17"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4263,14 +4198,14 @@
     </row>
     <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -4280,127 +4215,127 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -4410,19 +4345,19 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -4495,7 +4430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2776530C-A6E4-4CB3-94D7-E5A3E80CAD7F}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -4517,72 +4452,72 @@
     </row>
     <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -4590,37 +4525,37 @@
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
@@ -4630,7 +4565,7 @@
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
@@ -4640,7 +4575,7 @@
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
@@ -4650,7 +4585,7 @@
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
@@ -4659,70 +4594,70 @@
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4">
@@ -4732,31 +4667,31 @@
     <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
@@ -4767,8 +4702,8 @@
         <v>7</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="13" t="s">
-        <v>275</v>
+      <c r="D26" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
